--- a/biology/Zoologie/Ceratinella/Ceratinella.xlsx
+++ b/biology/Zoologie/Ceratinella/Ceratinella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratinella est un genre d'araignées aranéomorphes de la famille des Linyphiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratinella est un genre d'araignées aranéomorphes de la famille des Linyphiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique, sauf Ceratinella sydneyensis d'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en zone holarctique, sauf Ceratinella sydneyensis d'Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24, 27/01/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24, 27/01/2023) :
 Ceratinella acerea Chamberlin &amp; Ivie, 1933
 Ceratinella acutalis Irfan, Zhang &amp; Peng, 2022
 Ceratinella alaskae Chamberlin &amp; Ivie, 1947
@@ -599,10 +615,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceratina[2] Menge, 1868, préoccupé par Ceratina Latreille, 1802, a été remplacé par Ceratinella par Emerton en 1882[3].
-Ceratinodes[4] est un nom de remplacement superflu.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceratina Menge, 1868, préoccupé par Ceratina Latreille, 1802, a été remplacé par Ceratinella par Emerton en 1882.
+Ceratinodes est un nom de remplacement superflu.
 </t>
         </is>
       </c>
@@ -631,7 +649,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Emerton, 1882 : « New England spiders of the family Theridiidae. » Transactions of the Connecticut Academy of Arts and Sciences, vol. 6, p. 1-86 (texte intégral).
 Menge, 1868 : « Preussische spinnen. II. » Erste Abtheilung. Schriften der Naturforschenden Gesellschaft in Danzig, Neue Serie, vol. 2, p. 153-218.</t>
